--- a/BackTest/2020-01-24 BackTest WPX.xlsx
+++ b/BackTest/2020-01-24 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>523683.1323803817</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>492334.1955803817</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>382306.3149803817</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>383172.8627803817</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>387387.1807803817</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>340540.4765937879</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>324542.2302937879</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>343589.3675937879</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>375167.4280937879</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>375162.4280937879</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>370826.0012937879</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>366904.1359937879</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>360694.6880937879</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>361043.1299937879</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>361400.5594937879</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>361405.5594937879</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>359152.3185937879</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>359157.3185937879</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>318434.1325937879</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-263696.2302062121</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-294076.5878062121</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-268690.2294062121</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-296046.8714062121</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-216226.5566062121</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-216231.5566062121</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-216231.5566062121</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-235241.6816564634</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-235249.4816564634</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-248279.8582564633</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-236527.6264564633</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-230426.2226564633</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-243027.6084292094</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-246078.9868592024</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-246078.9868592024</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-250961.6775592024</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-250979.6775592024</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-250979.6775592024</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-250997.6775592024</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-252305.1558592024</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-252467.1558592024</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-252467.1558592024</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-252431.1558592024</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-254818.7454592024</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-254782.7454592024</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-308825.0746592024</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-266264.7607592024</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-265537.8685592024</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-251485.2921592024</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-250493.1421592024</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-272525.1089592024</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-227966.1903592024</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-233038.9400592024</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-233038.8257592024</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-265427.9932592024</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-266407.8250592024</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-323220.5635592024</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-344758.9052592024</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-334809.9481592024</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-335440.9512592023</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-334863.9481592024</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-360921.0144592024</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-360905.9605592024</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-421299.3482592024</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-421275.3482592024</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-421248.7821592024</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-423248.7821592024</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-423278.9068592024</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-430078.6156592024</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-433578.6156592024</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-460178.1335592024</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-446100.5843592024</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-410401.3992592024</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-420483.3992592024</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-420473.3992592024</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-424365.8271592024</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-422185.1641592024</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-422293.1641592024</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-421222.9142592024</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-421396.6749592024</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-416014.8280592024</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-417569.0982592024</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-429406.8320592024</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-429380.2013592024</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-440729.5237592024</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-439991.8942592025</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-448309.1264540284</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-441907.3031540284</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-434148.2380592026</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-431451.8394592025</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-427363.4422592025</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-427322.8203592025</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-422296.9786592025</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-420536.8083592025</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-420551.8083592025</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-434759.6408592025</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-434767.8300592025</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-434772.8848592025</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-535054.9310592025</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-561574.6820592026</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-590135.4297592025</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-542501.2541592026</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-538269.1246592025</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-538263.1246592025</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-540907.3564592025</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-540707.3564592025</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-534971.3037592025</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-534955.0539592025</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-530957.052512</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-530947.290012</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-538877.810112</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-530028.1843956065</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-529647.9512956066</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-532742.9863956065</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-527730.3207956066</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-528717.3758956066</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-528759.3758956066</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-526683.2019956065</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-526501.8606058784</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-589596.2536058784</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-525569.7816058785</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-525563.7816058785</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-525013.4810058785</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-548575.4779058786</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-548575.4779058786</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-526961.4794058786</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-534240.3040058786</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-586182.1809058787</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-586166.2325058787</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-589181.0609058787</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-606230.8063058787</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-616439.7734058787</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-615170.0264058787</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-620181.3778058788</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-620156.2569058788</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-660514.9917058788</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-656155.2184346097</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-655500.7082346097</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-655484.8105346097</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-663331.5931346097</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-661719.7779346097</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-682835.9812346097</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-708786.0999346097</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-708770.2597346097</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-722313.6874346097</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-720982.1025346097</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-704798.5687346098</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-730991.1920346097</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-744013.7456346097</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-743996.7456346097</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-742833.3418346097</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-742878.2148346098</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-744039.1161346098</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-861391.2690346098</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-949071.9681346097</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-990285.3360346097</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1009632.46803461</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1138321.51763461</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1252865.37403461</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1247622.95843461</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1257998.04293461</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1252692.64293461</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1252722.64293461</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1240071.31453461</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1216765.51673461</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1231566.11093461</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1211798.35933461</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1440282.72893461</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1575816.05413461</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1575816.05413461</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1580431.04463461</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1448632.10663461</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1444616.59973461</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1432688.33363461</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1422628.89973461</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1398660.47593461</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1378994.08693461</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1386768.89553461</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1398725.39053461</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1378223.03733461</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1473600.61973461</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1481823.34913461</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1481823.34913461</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1481823.34913461</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1481796.65563461</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1507102.34943461</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1507078.65663461</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1520873.73083461</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1533155.357506956</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1533155.357506956</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1531696.800606956</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1523970.664506956</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1524461.108206956</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1522306.04457574</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1522413.698790402</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1457395.966490402</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1442819.119590402</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1372295.226490402</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1369600.597490402</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1369600.597490402</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1364349.694490402</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1372325.866890403</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1372325.866890403</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1376786.198790403</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1398182.478690403</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1405782.384590402</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1417495.340590402</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1479839.854090402</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1484122.816390402</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1471508.186990402</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1451376.55364029</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1451596.55364029</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1451796.55364029</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1493334.94824029</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1563878.21364029</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1457850.71764029</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1447815.34654029</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1445809.34654029</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1445872.34654029</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1445893.34654029</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1512087.435564618</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1503938.064682494</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1503941.583482494</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1526378.909782494</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1536378.909782494</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1536299.797682494</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1526714.531082494</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1609484.949682494</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1615016.905782494</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1615124.905782494</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1615118.423082494</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1645118.423082494</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1645110.285082494</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1652330.014882494</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1652843.495682494</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1652843.495682494</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1640888.439282495</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1666103.663982495</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1726553.390782495</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1699553.390782495</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1704004.190782495</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1741002.733382495</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1710552.733382495</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1712518.507482495</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1755092.225382495</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1749869.182882495</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1747869.182882495</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1767855.427982495</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1763725.427982495</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1770391.478282495</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1769051.600282495</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1817187.800182495</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1818772.340046558</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1799409.612846558</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1811781.032122798</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1800815.144199038</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1795350.107099038</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1795350.107099038</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1796164.603699038</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1776798.132699038</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1847458.722099038</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1830681.872699038</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1830679.109199038</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1831158.275099038</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1819224.054199038</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1841804.342699038</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1914966.762999038</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1905033.475720127</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1908547.475720127</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1898210.664620127</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1912350.790320127</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1918215.790320127</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1943966.262920127</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1942083.017051591</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1942952.706751591</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1942952.706751591</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1942946.706751591</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1942946.706751591</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1951448.268851591</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1945887.268851591</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1945881.268851591</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1971820.505451591</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1962026.281651591</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1989724.372451591</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1989724.372451591</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1990561.788951591</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1991976.749687777</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2019714.345153236</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2021147.980053236</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-1999925.427253236</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1991747.819956709</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1991747.819956709</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1965876.456856709</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1966656.823556709</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-1965822.750156709</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1976531.442156709</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1976525.442156709</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1976525.442156709</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1977508.267056709</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1977502.267056709</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1969161.505896072</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1969161.505896072</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1979276.803596072</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1979270.803596072</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1963777.349196072</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1947474.441096072</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1947474.441096072</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1947333.537196072</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1944905.671496072</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1944705.671496072</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1945675.065196072</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1945675.065196072</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1938081.936496072</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1938081.936496072</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1909117.224496072</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1909117.224496072</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1890013.77566943</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1890013.77566943</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1901711.52666943</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1903743.19156943</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1903841.50726943</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1903873.50726943</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1903873.50726943</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1820300.470550929</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1870310.470550929</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-1868715.1814717</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-1868715.1814717</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1870438.33996943</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1870438.33996943</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1845742.93996943</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1844132.77216943</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1847341.21956943</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1851341.21956943</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1851341.21956943</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1859687.98006943</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1859687.98006943</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1858803.83756943</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1894258.45456943</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1894252.45456943</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1899627.52266943</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1899627.52266943</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1898976.17986943</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1895537.58886943</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1875800.67236943</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1876688.80526943</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1886219.84276943</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1886219.84276943</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1886213.84276943</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1907088.049969431</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1907082.049969431</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1908101.86976943</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1908101.86976943</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1908095.86976943</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-1911822.49056943</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-1913751.18966943</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1915174.65446943</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1969264.23946943</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1960470.46866943</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1981852.47606943</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1984792.80706943</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1994068.35806943</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1995875.98986943</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1994752.62266943</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1995083.476369431</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1994757.43516943</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1994751.43516943</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1990116.35496943</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1990116.35496943</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-2024674.27396943</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-2026684.737869431</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-2056310.113969431</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-2053373.801769431</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-2334758.341930269</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-2334416.909530269</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-2334144.762330269</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-2079713.680464268</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-2086379.604064268</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-2120036.636364268</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-2125150.155947585</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-2140353.049547585</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-2156180.960947585</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-2156174.960947585</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-2168174.960947585</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-2168168.960947585</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-2179402.960947585</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-2174517.405447586</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2174566.405447586</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-2166630.258874531</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-2166643.020274532</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-2166643.020274532</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-2170527.638074532</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-2290527.638074532</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-2289079.242074532</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2289073.242074532</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2294073.242074532</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2287339.541074532</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2239784.078191916</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2241321.181491916</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2256786.430791915</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2256443.927191915</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-2239825.889291916</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2326166.713991916</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-2379174.142840565</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2381895.142840565</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2391901.142840565</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-2391787.548450058</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2392790.660850058</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2437015.922650058</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2592308.745350058</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2577308.745350058</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2567308.745350058</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2500850.118350058</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2530225.686450058</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2530225.686450058</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2525615.865950058</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2602707.912050058</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2649246.754250058</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2646372.497250057</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2646372.497250057</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2642847.256650057</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2644978.637128798</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-2696639.545528798</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-2715278.637128798</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-2715278.637128798</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-2695272.637128798</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-2727594.578428798</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-2752029.405728798</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-2736596.361228798</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-2747727.722228798</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-2762582.168428798</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-2723629.062428798</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-2723629.062428798</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-2691718.284944082</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-2694018.202951111</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-2731088.844617528</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-2759831.284017528</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-2752200.807017528</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-2736184.998141422</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-2929470.312141422</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-3098481.312141422</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-3081178.745241422</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-3083707.245241422</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-3130026.116741422</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-3353168.207041421</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-3274044.350041422</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-3271431.771341422</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-3271449.771341422</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-3269913.077741422</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-3187882.747241422</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-3242996.271841422</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-2948030.186641422</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-2991844.936441422</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-2993882.843941422</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-3038786.794741422</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-2767321.154141422</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-2795194.890641422</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-2975720.746341422</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-2975666.746341422</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-3812858.249406158</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3677579.829653773</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3767571.921553773</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-3769812.896053773</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-3814731.548553773</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-4393834.234673064</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-4792219.507173064</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-5101550.893073064</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-5582572.004373064</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-5647382.366673064</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5631682.539573064</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5691826.681873064</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5806388.672773064</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5847980.274873064</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-6308812.849773064</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-6550568.356873064</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-6626887.187573064</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-6516313.540803041</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-6356788.417003041</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-6467949.779241912</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-6451542.496814428</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-6489183.065914428</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-6633460.028401093</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-6561206.098901093</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-6653657.546668111</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-6572127.685568111</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-6616542.714868111</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-6641859.265268111</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-6607120.750268111</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-6653373.542068111</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-6651194.815968111</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-6651339.349468111</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-6634499.112768111</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-6634499.112768111</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-6629427.210137892</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-6652580.68042201</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-6693742.47042201</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-6630156.71612201</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-6699758.21440278</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-6749816.38750278</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-6829847.820794018</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-7375179.861194019</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-7338412.97873453</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-7458837.66117504</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-7497046.12607504</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-7600963.41937504</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-7320735.015501373</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-7365937.447295927</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-7278068.347295927</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-7291593.013995927</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-7291593.013995927</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-7184548.058195927</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-7024933.104095927</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-7003135.516495927</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-6884725.306395927</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-6910684.003595928</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-6906439.279095928</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-6924568.202695929</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-6927788.949295929</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-6937694.713295929</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-6964305.190895929</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-6950136.996695929</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-6957373.415195929</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-6957373.415195929</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-6855716.075795929</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-6865876.269295929</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-6921331.22549593</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-6807723.37989593</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-6873826.264702477</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-6756810.574402478</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-6678933.692102478</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-6705210.638502478</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-6855236.638502478</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27181,11 +27181,17 @@
         <v>-8517849.672777088</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>59.44</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27214,11 +27220,17 @@
         <v>-8609809.330377089</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>57.9</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27247,7 +27259,7 @@
         <v>-8585971.171777088</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>56.24</v>
@@ -27255,7 +27267,7 @@
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L814" t="n">
@@ -27286,7 +27298,7 @@
         <v>-8532480.581377089</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>56.99</v>
@@ -27325,7 +27337,7 @@
         <v>-8465513.115873586</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>58.12</v>
@@ -27364,7 +27376,7 @@
         <v>-8401725.131373586</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>59.38</v>
@@ -27403,7 +27415,7 @@
         <v>-8375067.807973586</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>59.47</v>
@@ -27442,7 +27454,7 @@
         <v>-8069026.194273586</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I819" t="n">
         <v>60.66</v>
@@ -27481,7 +27493,7 @@
         <v>-8208111.961673587</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
         <v>64.75</v>
@@ -27520,7 +27532,7 @@
         <v>-7952886.271073586</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>60.11</v>
@@ -27559,7 +27571,7 @@
         <v>-7617744.81407857</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I822" t="n">
         <v>61</v>
@@ -27598,9 +27610,11 @@
         <v>-8253231.089578571</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>62.41</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -27635,11 +27649,9 @@
         <v>-8271878.410078571</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="n">
-        <v>61.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -27785,9 +27797,11 @@
         <v>-8250524.338878571</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>60.46</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -27859,9 +27873,11 @@
         <v>-8580710.763978571</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>60.5</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -27933,9 +27949,11 @@
         <v>-8501692.815278571</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>61.6</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28007,9 +28025,11 @@
         <v>-8499056.36187857</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>62.32</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28044,9 +28064,11 @@
         <v>-8477582.168478571</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>62.42</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28081,9 +28103,11 @@
         <v>-8493017.952578571</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>62.45</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28118,9 +28142,11 @@
         <v>-8524015.952578571</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>62.29</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -29635,9 +29661,11 @@
         <v>-8627395.463367168</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>65.09</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29672,9 +29700,11 @@
         <v>-8657621.968767168</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>64.76000000000001</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29709,9 +29739,11 @@
         <v>-8650485.642767169</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>64.40000000000001</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29857,9 +29889,11 @@
         <v>-8659328.04456717</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -29894,9 +29928,11 @@
         <v>-8748922.56936717</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>65.37</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29931,9 +29967,11 @@
         <v>-8758092.22066717</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>65.23</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29968,9 +30006,11 @@
         <v>-8780457.02016717</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>64.73</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30005,9 +30045,11 @@
         <v>-8830207.18676717</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>63.61</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30042,7 +30084,7 @@
         <v>-8921812.152567171</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>63.22</v>
@@ -30081,7 +30123,7 @@
         <v>-9202461.13326717</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>62.8</v>
@@ -30120,7 +30162,7 @@
         <v>-9197184.657967171</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>61.13</v>
@@ -30159,7 +30201,7 @@
         <v>-9265695.18036717</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>61.88</v>
@@ -30198,7 +30240,7 @@
         <v>-9265175.94346717</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>61.35</v>
@@ -30237,7 +30279,7 @@
         <v>-9355172.26016717</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>61.84</v>
@@ -30276,7 +30318,7 @@
         <v>-9289758.76256717</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>61.67</v>
@@ -30315,7 +30357,7 @@
         <v>-9296970.26706717</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>62.99</v>
@@ -30354,7 +30396,7 @@
         <v>-9294006.44586717</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>62.11</v>
@@ -30393,7 +30435,7 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>62.9</v>
@@ -30432,7 +30474,7 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>62.82</v>
@@ -30471,7 +30513,7 @@
         <v>-9313247.874867169</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>62.82</v>
@@ -30510,7 +30552,7 @@
         <v>-9317129.351267168</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>63.74</v>
@@ -30549,7 +30591,7 @@
         <v>-9319582.923767168</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>63.6</v>
@@ -30588,7 +30630,7 @@
         <v>-9278339.665397275</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>63.58</v>
@@ -30627,7 +30669,7 @@
         <v>-9278348.665397275</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>63.74</v>
@@ -30666,7 +30708,7 @@
         <v>-9247258.484297276</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>63.49</v>
@@ -30705,9 +30747,11 @@
         <v>-9252254.176697275</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>63.76</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30742,7 +30786,7 @@
         <v>-9277035.340397274</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>63.48</v>
@@ -30781,7 +30825,7 @@
         <v>-9271350.105897274</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>63.09</v>
@@ -30820,7 +30864,7 @@
         <v>-9273697.121997274</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>63.3</v>
@@ -30859,9 +30903,11 @@
         <v>-9293033.679497274</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>63.09</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30896,9 +30942,11 @@
         <v>-9285802.766997274</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>61.91</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30933,7 +30981,7 @@
         <v>-9283426.712497273</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>62.3</v>
@@ -30972,7 +31020,7 @@
         <v>-9286359.253659459</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>62.4</v>
@@ -31011,7 +31059,7 @@
         <v>-9269460.950859459</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>61.92</v>
@@ -31050,7 +31098,7 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>62.89</v>
@@ -31089,9 +31137,11 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>62.9</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31126,9 +31176,11 @@
         <v>-9190458.69815946</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>62.9</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31163,7 +31215,7 @@
         <v>-9179557.769759459</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>63.3</v>
@@ -31202,7 +31254,7 @@
         <v>-9140572.720206201</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>63.76</v>
@@ -31241,9 +31293,11 @@
         <v>-9168132.68850713</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>66.73</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31278,9 +31332,11 @@
         <v>-9167546.02210713</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31500,9 +31556,11 @@
         <v>-9440232.940507129</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>64.01000000000001</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31537,11 +31595,9 @@
         <v>-9463925.465807129</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
-      </c>
-      <c r="I928" t="n">
-        <v>63.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31576,7 +31632,7 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>63.15</v>
@@ -31615,7 +31671,7 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I930" t="n">
         <v>63.09</v>
@@ -31654,7 +31710,7 @@
         <v>-9452933.07600713</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="n">
         <v>63.09</v>
@@ -31693,7 +31749,7 @@
         <v>-9472532.399907129</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>63.3</v>
@@ -31732,7 +31788,7 @@
         <v>-9469643.58360713</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I933" t="n">
         <v>63.19</v>
@@ -31771,9 +31827,11 @@
         <v>-9469743.58360713</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>64.40000000000001</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31808,9 +31866,11 @@
         <v>-9481839.475707131</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>64.34999999999999</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31845,9 +31905,11 @@
         <v>-9481823.355707131</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>63.3</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31882,9 +31944,11 @@
         <v>-9475652.881207131</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>63.4</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -31919,9 +31983,11 @@
         <v>-9454650.033307131</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>63.9</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31956,9 +32022,11 @@
         <v>-9454650.033307131</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>64.36</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31993,9 +32061,11 @@
         <v>-9454674.033307131</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>64.36</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32030,9 +32100,11 @@
         <v>-9444044.807707131</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>63.9</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32067,7 +32139,7 @@
         <v>-9444044.807707131</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>64.2</v>
@@ -32106,9 +32178,11 @@
         <v>-9454682.133307131</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>64.2</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32143,7 +32217,7 @@
         <v>-9454666.233307131</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I944" t="n">
         <v>63.19</v>
@@ -32182,7 +32256,7 @@
         <v>-9454666.233307131</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>63.4</v>
@@ -32221,7 +32295,7 @@
         <v>-9487973.849307131</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>63.4</v>
@@ -32260,7 +32334,7 @@
         <v>-9473065.742107131</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I947" t="n">
         <v>63.3</v>
@@ -32299,7 +32373,7 @@
         <v>-9509196.67770713</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I948" t="n">
         <v>63.4</v>
@@ -32338,7 +32412,7 @@
         <v>-9503323.241907131</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>63.3</v>
@@ -32377,7 +32451,7 @@
         <v>-9519347.95050713</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>64.19</v>
@@ -32416,9 +32490,11 @@
         <v>-9544449.773607131</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32453,7 +32529,7 @@
         <v>-9544433.943607131</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>63.09</v>
@@ -32492,7 +32568,7 @@
         <v>-9561545.855507132</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953" t="n">
         <v>63.89</v>
@@ -32531,7 +32607,7 @@
         <v>-9561545.855507132</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>62.9</v>
@@ -32570,7 +32646,7 @@
         <v>-9568262.977407131</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955" t="n">
         <v>62.9</v>
@@ -32609,7 +32685,7 @@
         <v>-9568252.977407131</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>62.53</v>
@@ -32648,7 +32724,7 @@
         <v>-9568244.977407131</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>63.64</v>
@@ -32687,7 +32763,7 @@
         <v>-9571087.657107132</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>63.76</v>
@@ -32726,7 +32802,7 @@
         <v>-9571087.657107132</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>62.53</v>
@@ -32765,7 +32841,7 @@
         <v>-9550292.703707132</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>62.53</v>
@@ -32804,7 +32880,7 @@
         <v>-9550346.564288564</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>64.18000000000001</v>
@@ -32843,7 +32919,7 @@
         <v>-9550346.564288564</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I962" t="n">
         <v>63.98</v>
@@ -32882,7 +32958,7 @@
         <v>-9609826.322588565</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963" t="n">
         <v>63.98</v>
@@ -32921,9 +32997,11 @@
         <v>-9609826.322588565</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>63.53</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -32958,9 +33036,11 @@
         <v>-9609826.322588565</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>63.53</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -32995,9 +33075,11 @@
         <v>-9609826.322588565</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>63.53</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33032,9 +33114,11 @@
         <v>-9609904.641388565</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>63.53</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33069,9 +33153,11 @@
         <v>-9611354.012588566</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>63.47</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33106,9 +33192,11 @@
         <v>-9611346.012588566</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>62.54</v>
+      </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33143,9 +33231,11 @@
         <v>-9611404.012588566</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>63.43</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33180,9 +33270,11 @@
         <v>-9611404.012588566</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>62.54</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33217,9 +33309,11 @@
         <v>-9611372.012588566</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>62.54</v>
+      </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33254,9 +33348,11 @@
         <v>-9608687.853288567</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>62.55</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33291,9 +33387,11 @@
         <v>-9596145.383488568</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>62.56</v>
+      </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33328,9 +33426,11 @@
         <v>-9596145.383488568</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>62.57</v>
+      </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33365,9 +33465,11 @@
         <v>-9601756.473588567</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>62.57</v>
+      </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33402,9 +33504,11 @@
         <v>-9589952.949288568</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>62.54</v>
+      </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -33439,9 +33543,11 @@
         <v>-9587811.171188567</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>62.7</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -33476,9 +33582,11 @@
         <v>-9572781.756788567</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>62.96</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33513,9 +33621,11 @@
         <v>-9526756.714788567</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>63</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -33550,7 +33660,7 @@
         <v>-9504927.670988567</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I981" t="n">
         <v>63.37</v>
@@ -33589,9 +33699,11 @@
         <v>-9504919.670988567</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>63.41</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -33626,9 +33738,11 @@
         <v>-9504919.670988567</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -33663,9 +33777,11 @@
         <v>-9502356.398688568</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -33700,9 +33816,11 @@
         <v>-9519161.689388568</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>63.8</v>
+      </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -33737,9 +33855,11 @@
         <v>-9519161.689388568</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>63.4</v>
+      </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -33774,9 +33894,11 @@
         <v>-9537945.185788568</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>63.4</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -33811,9 +33933,11 @@
         <v>-9537937.185788568</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>63.1</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -33848,9 +33972,11 @@
         <v>-9538037.185788568</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>63.4</v>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -33885,9 +34011,11 @@
         <v>-9543999.513641141</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>63.39</v>
+      </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -33922,9 +34050,11 @@
         <v>-9549624.811241141</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>63.34</v>
+      </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -33937,6 +34067,6 @@
       <c r="M991" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WPX.xlsx
+++ b/BackTest/2020-01-24 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>523683.1323803817</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>492334.1955803817</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>382306.3149803817</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>383172.8627803817</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>387387.1807803817</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>340540.4765937879</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>324542.2302937879</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>343589.3675937879</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>375167.4280937879</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>375162.4280937879</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>370826.0012937879</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>366904.1359937879</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>360694.6880937879</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>361043.1299937879</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-216306.5666564634</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-235241.6816564634</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-235249.4816564634</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-248279.8582564633</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-236527.6264564633</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-230426.2226564633</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-308825.0746592024</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-266264.7607592024</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-265537.8685592024</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-251485.2921592024</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-250493.1421592024</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-272525.1089592024</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-227966.1903592024</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-233038.9400592024</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-233038.8257592024</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-262297.9411592024</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-265427.9932592024</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-266407.8250592024</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-323220.5635592024</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-344758.9052592024</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-334809.9481592024</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-335440.9512592023</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-334863.9481592024</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-360921.0144592024</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-360905.9605592024</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-421299.3482592024</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-421275.3482592024</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-421248.7821592024</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-423248.7821592024</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-423278.9068592024</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-430078.6156592024</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-433578.6156592024</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-460178.1335592024</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-446100.5843592024</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-410401.3992592024</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-420483.3992592024</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-420473.3992592024</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-424365.8271592024</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-422293.1641592024</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-421222.9142592024</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-421396.6749592024</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-416014.8280592024</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-417569.0982592024</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-429406.8320592024</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-429380.2013592024</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-440729.5237592024</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-422296.9786592025</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-420536.8083592025</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-420551.8083592025</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-434759.6408592025</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-434767.8300592025</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-434772.8848592025</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-535054.9310592025</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-561574.6820592026</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-590135.4297592025</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-542501.2541592026</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-538164.5246592026</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-538269.1246592025</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-538263.1246592025</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-530028.1843956065</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-529647.9512956066</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-532742.9863956065</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-527730.3207956066</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-528717.3758956066</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-528759.3758956066</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-526683.2019956065</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-526501.8606058784</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-589596.2536058784</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-525569.7816058785</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-525563.7816058785</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-525013.4810058785</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-525580.7238058785</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-548575.4779058786</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-548575.4779058786</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-526961.4794058786</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-534240.3040058786</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-586182.1809058787</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-586166.2325058787</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-589181.0609058787</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-606230.8063058787</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-616439.7734058787</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-615170.0264058787</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-620181.3778058788</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-620156.2569058788</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-660514.9917058788</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-656155.2184346097</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-655500.7082346097</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-655484.8105346097</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-663331.5931346097</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-663315.7393346097</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-661719.7779346097</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-682835.9812346097</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-708786.0999346097</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-708770.2597346097</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-722313.6874346097</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-720982.1025346097</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-704798.5687346098</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-730991.1920346097</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-744013.7456346097</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-743996.7456346097</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-742833.3418346097</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-742878.2148346098</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-744039.1161346098</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-861391.2690346098</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-949071.9681346097</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-990285.3360346097</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1009632.46803461</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1138321.51763461</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1252865.37403461</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-1247622.95843461</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-1257998.04293461</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-1252692.64293461</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-1252722.64293461</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1240071.31453461</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1216765.51673461</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-1231566.11093461</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-1211798.35933461</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-1440282.72893461</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-1575816.05413461</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-1575816.05413461</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-1580431.04463461</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-1448632.10663461</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-1444616.59973461</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-1432688.33363461</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-1422628.89973461</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-1398660.47593461</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-1378994.08693461</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1386768.89553461</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-1398725.39053461</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-1378223.03733461</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1481823.34913461</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1507102.34943461</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-1507078.65663461</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1520873.73083461</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-1509176.131606956</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1533155.357506956</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1533155.357506956</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1531696.800606956</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1523970.664506956</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1524461.108206956</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1522306.04457574</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1522413.698790402</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-1457395.966490402</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-1442819.119590402</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-1372295.226490402</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-1369600.597490402</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-1369600.597490402</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-1364349.694490402</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1372325.866890403</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-1372325.866890403</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-1417495.340590402</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-1479839.854090402</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-1484122.816390402</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-1471508.186990402</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-1451376.55364029</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-1451596.55364029</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1451796.55364029</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1493334.94824029</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1563878.21364029</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1457850.71764029</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1447815.34654029</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1445809.34654029</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1445872.34654029</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1445893.34654029</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1512087.435564618</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1503938.064682494</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1503941.583482494</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1526378.909782494</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1536378.909782494</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1526714.531082494</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1609484.949682494</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1615016.905782494</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1615124.905782494</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1615118.423082494</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-1645118.423082494</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-1645110.285082494</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-1652330.014882494</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-1652843.495682494</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-1652843.495682494</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-1640888.439282495</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-1654741.083282495</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-1755092.225382495</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-1749869.182882495</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-1747869.182882495</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-1767855.427982495</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-1763725.427982495</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-1811781.032122798</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-1800815.144199038</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-1795350.107099038</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1795350.107099038</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1796164.603699038</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1831158.275099038</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1819224.054199038</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1830442.489999038</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1845138.613599038</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1841804.342699038</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1914966.762999038</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1906824.001099038</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1905033.475720127</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1908547.475720127</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1897787.831720127</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1898210.664620127</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1912350.790320127</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1918215.790320127</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1918208.790320127</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-1943966.262920127</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-1942083.017051591</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-1942952.706751591</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-1942952.706751591</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-1942946.706751591</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-1942946.706751591</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-1951448.268851591</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-1945887.268851591</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-1945881.268851591</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-1971820.505451591</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-1962026.281651591</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-1989724.372451591</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1989724.372451591</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1990561.788951591</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1991976.749687777</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2019714.345153236</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2021147.980053236</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-1991797.871653236</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-1999925.427253236</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1991747.819956709</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-1991747.819956709</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-1965876.456856709</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-1966656.823556709</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-1965822.750156709</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-1976531.442156709</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-1976525.442156709</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-1976525.442156709</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-1977508.267056709</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1977502.267056709</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-1969161.505896072</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-1969161.505896072</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-1979276.803596072</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-1979270.803596072</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-1963777.349196072</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1958324.736096072</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-1947474.441096072</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-1947474.441096072</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-1947333.537196072</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-1944905.671496072</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1944705.671496072</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1945675.065196072</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1945675.065196072</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1938081.936496072</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1938081.936496072</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1933082.320396072</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1909117.224496072</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1909117.224496072</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1890013.77566943</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1890013.77566943</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-1901711.52666943</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1903743.19156943</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-1903841.50726943</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-1903873.50726943</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-1903873.50726943</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-1820300.470550929</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-1870310.470550929</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-1868715.1814717</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-1868715.1814717</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-1866215.1814717</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-1870438.33996943</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-1870438.33996943</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-1845742.93996943</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-1844132.77216943</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1847341.21956943</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1851341.21956943</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-1851341.21956943</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-1859687.98006943</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1859687.98006943</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-1858803.83756943</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-1894258.45456943</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-1894252.45456943</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-1899627.52266943</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-1899627.52266943</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-1898976.17986943</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-1895537.58886943</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-1875800.67236943</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-1876688.80526943</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-1886219.84276943</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-1886219.84276943</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-1886213.84276943</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-1907088.049969431</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-1907082.049969431</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-1908101.86976943</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-1908101.86976943</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-1908095.86976943</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-1911822.49056943</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-1913751.18966943</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-1915174.65446943</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1969264.23946943</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1960470.46866943</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1981852.47606943</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1984792.80706943</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1994068.35806943</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1995875.98986943</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1994752.62266943</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1995083.476369431</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1994757.43516943</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1994751.43516943</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1990116.35496943</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1990116.35496943</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-2024674.27396943</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-2026684.737869431</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-2056310.113969431</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-2334144.762330269</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-2079713.680464268</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-2086379.604064268</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-2120036.636364268</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-2125150.155947585</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-2135197.575347585</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-2140353.049547585</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-2156180.960947585</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-2156174.960947585</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-2168174.960947585</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-2168168.960947585</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-2179402.960947585</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-2174517.405447586</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-2174566.405447586</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-2166630.258874531</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-2166643.020274532</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-2166643.020274532</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-2170527.638074532</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-2290527.638074532</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-2289079.242074532</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-2289073.242074532</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-2294073.242074532</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2300789.645191916</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2567308.745350058</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2500850.118350058</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2530225.686450058</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2530225.686450058</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2525615.865950058</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2602707.912050058</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2649246.754250058</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2646372.497250057</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2646372.497250057</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2642847.256650057</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2644978.637128798</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-2696639.545528798</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-2715278.637128798</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-2715278.637128798</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-2695272.637128798</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-2727594.578428798</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-2752029.405728798</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-2723629.062428798</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-2723629.062428798</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-2691862.834844082</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-2690750.008923084</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-2714262.183323083</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-2731088.844617528</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-2759831.284017528</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-2752200.807017528</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-2736184.998141422</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-2752566.802841422</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-2750498.703741422</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-2856972.459541422</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-2929453.812141422</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-2929470.312141422</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-3098481.312141422</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-3083707.245241422</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-3130026.116741422</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-3353168.207041421</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-3274044.350041422</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-3271431.771341422</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-3290363.348241422</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-3242996.271841422</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-2993882.843941422</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-3038786.794741422</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-2767321.154141422</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-2795194.890641422</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-2832530.850241422</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-3007526.542341422</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-3015108.985041422</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-3187327.198141423</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-3320232.187541422</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-3311552.886941422</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-3311574.886941422</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-3391263.019841422</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-3422410.555841422</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-3520834.125541422</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-3959476.931341422</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-3874127.750206158</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-3874134.350206159</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-3812858.249406158</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3677579.829653773</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3767571.921553773</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-3769812.896053773</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-3814731.548553773</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-4393834.234673064</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-4792219.507173064</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-5101550.893073064</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-5582572.004373064</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-5647382.366673064</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5631682.539573064</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5691826.681873064</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5806388.672773064</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5847980.274873064</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-6308812.849773064</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-6550568.356873064</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-6626887.187573064</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-6641859.265268111</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-6607120.750268111</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-6653373.542068111</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-6651194.815968111</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-6651339.349468111</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-6650275.37102201</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-6749816.38750278</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-6829847.820794018</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-6843507.445594018</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-6976046.273294019</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-7015989.565394019</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-7120211.378294019</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-7226351.298794019</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-7375179.861194019</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-7338412.97873453</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-6982366.947595927</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-7022671.483095927</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-7024933.104095927</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-7003135.516495927</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-6884725.306395927</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-6910684.003595928</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-6934134.202995928</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-6906439.279095928</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-6924568.202695929</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-6927788.949295929</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-6937694.713295929</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27181,17 +27181,11 @@
         <v>-8517849.672777088</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>59.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27220,17 +27214,11 @@
         <v>-8609809.330377089</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>57.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27259,17 +27247,11 @@
         <v>-8585971.171777088</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>56.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27298,17 +27280,11 @@
         <v>-8532480.581377089</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>56.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27337,17 +27313,11 @@
         <v>-8465513.115873586</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>58.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27376,17 +27346,11 @@
         <v>-8401725.131373586</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>59.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27415,17 +27379,11 @@
         <v>-8375067.807973586</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>59.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27454,17 +27412,11 @@
         <v>-8069026.194273586</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>60.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27493,17 +27445,11 @@
         <v>-8208111.961673587</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>64.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27532,17 +27478,11 @@
         <v>-7952886.271073586</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>60.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27571,17 +27511,11 @@
         <v>-7617744.81407857</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27610,17 +27544,11 @@
         <v>-8253231.089578571</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>62.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27653,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27690,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27727,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27764,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27797,17 +27709,11 @@
         <v>-8250524.338878571</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>60.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27840,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27873,17 +27775,11 @@
         <v>-8580710.763978571</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>60.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27916,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27949,17 +27841,11 @@
         <v>-8501692.815278571</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>61.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27992,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28025,17 +27907,11 @@
         <v>-8499056.36187857</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>62.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28064,17 +27940,11 @@
         <v>-8477582.168478571</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>62.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28103,17 +27973,11 @@
         <v>-8493017.952578571</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>62.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28142,17 +28006,11 @@
         <v>-8524015.952578571</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>62.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28185,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28222,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28259,11 +28109,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28296,11 +28142,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28333,11 +28175,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28370,11 +28208,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28407,11 +28241,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28444,11 +28274,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28481,11 +28307,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28518,11 +28340,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28555,11 +28373,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28592,11 +28406,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28629,11 +28439,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28662,15 +28468,11 @@
         <v>-8432499.037274061</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28699,15 +28501,11 @@
         <v>-8411880.49577406</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28736,15 +28534,11 @@
         <v>-8415419.00237406</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28773,15 +28567,11 @@
         <v>-8399910.604554795</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28810,15 +28600,11 @@
         <v>-8226587.043029546</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28847,15 +28633,11 @@
         <v>-8233796.521580554</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28884,15 +28666,11 @@
         <v>-8234021.431280553</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28921,15 +28699,11 @@
         <v>-8205118.867980554</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28958,15 +28732,11 @@
         <v>-8185063.392580554</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28995,15 +28765,11 @@
         <v>-8158881.473880554</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29032,15 +28798,11 @@
         <v>-8158848.473880554</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29069,15 +28831,11 @@
         <v>-8052148.034537809</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29106,15 +28864,11 @@
         <v>-8162573.828095486</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29143,15 +28897,11 @@
         <v>-8327289.622395487</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29180,15 +28930,11 @@
         <v>-8510141.465719547</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29217,15 +28963,11 @@
         <v>-8470159.170019547</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29254,15 +28996,11 @@
         <v>-8616574.344067171</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29291,15 +29029,11 @@
         <v>-8625506.536167171</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29328,15 +29062,11 @@
         <v>-8620101.836367171</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29365,15 +29095,11 @@
         <v>-8647195.266167171</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29402,15 +29128,11 @@
         <v>-8648164.89496717</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29439,15 +29161,11 @@
         <v>-8634251.70326717</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29476,15 +29194,11 @@
         <v>-8671272.033767169</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29513,15 +29227,11 @@
         <v>-8579156.183367169</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29550,15 +29260,11 @@
         <v>-8582788.488667168</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29587,15 +29293,11 @@
         <v>-8624584.165467167</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29624,15 +29326,11 @@
         <v>-8624576.165467167</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29661,17 +29359,11 @@
         <v>-8627395.463367168</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>65.09</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29700,17 +29392,11 @@
         <v>-8657621.968767168</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>64.76000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29739,17 +29425,11 @@
         <v>-8650485.642767169</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>64.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29778,15 +29458,11 @@
         <v>-8634301.267367169</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29815,15 +29491,11 @@
         <v>-8637435.387167169</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29852,15 +29524,11 @@
         <v>-8668581.406867169</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29889,17 +29557,11 @@
         <v>-8659328.04456717</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>65.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29928,17 +29590,11 @@
         <v>-8748922.56936717</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>65.37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29967,17 +29623,11 @@
         <v>-8758092.22066717</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>65.23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30006,17 +29656,11 @@
         <v>-8780457.02016717</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>64.73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30045,17 +29689,11 @@
         <v>-8830207.18676717</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>63.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30084,17 +29722,11 @@
         <v>-8921812.152567171</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>63.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30123,17 +29755,11 @@
         <v>-9202461.13326717</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>62.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30162,17 +29788,11 @@
         <v>-9197184.657967171</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>61.13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30201,17 +29821,11 @@
         <v>-9265695.18036717</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>61.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30240,17 +29854,11 @@
         <v>-9265175.94346717</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>61.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30279,17 +29887,11 @@
         <v>-9355172.26016717</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>61.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30318,17 +29920,11 @@
         <v>-9289758.76256717</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>61.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30357,17 +29953,11 @@
         <v>-9296970.26706717</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>62.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30396,17 +29986,11 @@
         <v>-9294006.44586717</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>62.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30435,17 +30019,11 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>62.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30474,17 +30052,11 @@
         <v>-9313256.874867169</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>62.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30513,17 +30085,11 @@
         <v>-9313247.874867169</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>62.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30552,17 +30118,11 @@
         <v>-9317129.351267168</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>63.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30591,17 +30151,11 @@
         <v>-9319582.923767168</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>63.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30630,17 +30184,11 @@
         <v>-9278339.665397275</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>63.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30669,17 +30217,11 @@
         <v>-9278348.665397275</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>63.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30708,17 +30250,11 @@
         <v>-9247258.484297276</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>63.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30747,17 +30283,11 @@
         <v>-9252254.176697275</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>63.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30786,17 +30316,11 @@
         <v>-9277035.340397274</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>63.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30825,17 +30349,11 @@
         <v>-9271350.105897274</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>63.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30864,17 +30382,11 @@
         <v>-9273697.121997274</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30903,17 +30415,11 @@
         <v>-9293033.679497274</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>63.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30942,17 +30448,11 @@
         <v>-9285802.766997274</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>61.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30981,17 +30481,11 @@
         <v>-9283426.712497273</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>62.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31028,7 +30522,7 @@
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L913" t="n">
@@ -31137,11 +30631,9 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>62.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31215,11 +30707,9 @@
         <v>-9179557.769759459</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31293,11 +30783,9 @@
         <v>-9168132.68850713</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>66.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31332,11 +30820,9 @@
         <v>-9167546.02210713</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>64.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31556,11 +31042,9 @@
         <v>-9440232.940507129</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>64.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31632,11 +31116,9 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>63.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31866,11 +31348,9 @@
         <v>-9481839.475707131</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>64.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31905,11 +31385,9 @@
         <v>-9481823.355707131</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>63.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31944,11 +31422,9 @@
         <v>-9475652.881207131</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>63.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -34067,6 +33543,6 @@
       <c r="M991" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest WPX.xlsx
+++ b/BackTest/2020-01-24 BackTest WPX.xlsx
@@ -451,7 +451,7 @@
         <v>523683.1323803817</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>492334.1955803817</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>374052.2030803817</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>382306.3149803817</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>383172.8627803817</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>387387.1807803817</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>340540.4765937879</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>324542.2302937879</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>363969.9487937879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>343589.3675937879</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>366904.1359937879</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>360694.6880937879</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>361043.1299937879</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>361400.5594937879</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>361405.5594937879</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>359152.3185937879</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>359157.3185937879</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>318434.1325937879</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>328433.9076937879</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-267604.3109062121</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-263696.2302062121</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-289076.5886062121</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-242577.6348564633</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-251236.7624592024</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-233038.9400592024</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-262279.9411592024</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-265427.9932592024</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-266407.8250592024</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-323220.5635592024</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-344758.9052592024</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-335440.9512592023</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-334863.9481592024</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-319787.7710592024</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-360921.0144592024</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-360905.9605592024</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-403044.0134592024</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-421299.3482592024</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-421248.7821592024</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-423248.7821592024</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-423278.9068592024</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-430078.6156592024</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-433578.6156592024</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-460178.1335592024</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-446100.5843592024</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-446214.1743592024</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-410401.3992592024</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-410383.3992592024</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-420483.3992592024</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-420478.3992592024</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-420473.3992592024</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-424365.8271592024</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-422071.1641592024</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-422185.1641592024</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-422293.1641592024</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-422495.8301592025</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-421222.9142592024</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-421396.6749592024</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-421391.6749592024</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-421548.4940592024</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-416014.8280592024</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-417569.0982592024</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-429406.8320592024</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-429380.2013592024</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-440729.5237592024</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-439991.8942592025</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-451192.2334592025</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-451710.0337592025</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-447562.4018540283</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-451579.9464540284</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-447309.1264540284</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-448309.1264540284</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-441907.3031540284</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-437019.0080592025</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-434107.6161592025</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-434148.2380592026</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-431451.8394592025</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-427363.4422592025</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-427322.8203592025</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-425322.8203592025</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-422277.1786592025</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-422296.9786592025</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-420536.8083592025</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-420551.8083592025</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-420546.8083592025</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-434759.2627592025</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-434759.6408592025</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-434767.8300592025</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-434772.8848592025</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-535054.9310592025</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-561574.6820592026</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-590135.4297592025</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-538269.1246592025</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-538263.1246592025</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-540907.3564592025</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-540707.3564592025</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-527574.2242592025</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-534971.3037592025</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-534955.0539592025</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-530957.052512</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-530965.052512</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-530947.290012</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-538877.810112</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-529640.1226956066</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-532742.9863956065</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-527730.3207956066</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-528759.3758956066</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-525569.7816058785</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-606230.8063058787</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-616439.7734058787</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-605464.4963058787</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-613608.0238058787</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-620181.3778058788</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-620156.2569058788</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-659545.6008058788</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-660881.2926058788</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-635489.1796346097</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-643468.8046346097</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-661719.7779346097</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-661637.1657346097</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-661621.1974346098</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-682835.9812346097</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-708786.0999346097</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-708770.2597346097</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-708778.7972346097</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-722313.6874346097</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-730991.1920346097</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-744013.7456346097</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-742878.2148346098</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-744039.1161346098</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-1376786.198790403</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-1398182.478690403</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-1405782.384590402</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1536299.797682494</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1536291.153982494</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-1666103.663982495</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-1726603.464882495</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1726553.390782495</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-1699553.390782495</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-1704004.190782495</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-1741002.733382495</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-1710552.733382495</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-1712518.507482495</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-1753739.369682495</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-1770391.478282495</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-1769051.600282495</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-1828124.557282495</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-1817187.800182495</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-1818772.340046558</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-1799409.612846558</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1776798.132699038</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1847458.722099038</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1830681.872699038</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1830679.109199038</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1902201.839220127</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1907350.790320127</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-2053373.801769431</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-2334758.341930269</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-2334416.909530269</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-2287339.541074532</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-2239784.078191916</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-2241321.181491916</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-2256786.430791915</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-2256443.927191915</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-2239825.889291916</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-2326212.004391916</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2326166.713991916</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2300789.645191916</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2379334.294191916</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-2379174.142840565</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2381895.142840565</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2391901.142840565</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-2391787.548450058</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2392790.660850058</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2437015.922650058</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2592308.745350058</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2577308.745350058</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-2736596.361228798</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-2747727.722228798</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-2747672.172328798</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-2762582.168428798</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-2691862.834844082</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-2691718.284944082</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-2685415.480844082</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-2685409.480844082</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-2694018.202951111</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-2690750.008923084</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-2714262.183323083</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-2730277.266423083</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-2752566.802841422</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-2750498.703741422</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-2856972.459541422</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-2929453.812141422</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-3081178.745241422</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-3271449.771341422</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-3290363.348241422</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-3320561.445541422</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-3269913.077741422</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-3187882.747241422</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-2948030.186641422</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-2991844.936441422</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-2832530.850241422</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-2975720.746341422</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-2975666.746341422</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-3007568.542341422</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-3007526.542341422</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-3015108.985041422</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-3052623.202941422</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-3187127.774641423</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-3187327.198141423</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-3320232.187541422</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-3311552.886941422</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-3311574.886941422</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-3391263.019841422</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-3422410.555841422</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-3520834.125541422</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-3959476.931341422</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-4125357.945141422</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-3874127.750206158</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-3874134.350206159</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-3812858.249406158</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3677579.829653773</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3767571.921553773</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-3769812.896053773</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-3814731.548553773</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-4393834.234673064</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-4794585.787773064</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-4792219.507173064</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-5101550.893073064</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-5582572.004373064</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-5647382.366673064</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-5631682.539573064</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-5691826.681873064</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-5806388.672773064</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-5847980.274873064</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-6308812.849773064</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-6550568.356873064</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-6626887.187573064</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-6641859.265268111</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-6607120.750268111</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-6653373.542068111</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-6651194.815968111</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-6651339.349468111</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-6650275.37102201</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-6749816.38750278</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-6829847.820794018</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-6843507.445594018</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-6976046.273294019</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-7015989.565394019</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-7120211.378294019</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-7226351.298794019</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-7375179.861194019</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-7338412.97873453</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-6982366.947595927</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-7022671.483095927</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-7024933.104095927</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-7003135.516495927</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-6884725.306395927</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-6910684.003595928</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-6934134.202995928</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-6906439.279095928</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-6924568.202695929</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-6927788.949295929</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-6937694.713295929</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-8432499.037274061</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-8411880.49577406</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-8415419.00237406</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-8399910.604554795</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-8226587.043029546</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-8233796.521580554</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-8234021.431280553</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-8205118.867980554</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-8185063.392580554</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-8158881.473880554</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-8158848.473880554</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-8052148.034537809</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-8162573.828095486</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-8327289.622395487</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-8510141.465719547</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-8470159.170019547</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-8616574.344067171</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-8625506.536167171</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-8620101.836367171</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-8647195.266167171</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-8648164.89496717</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-8634251.70326717</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-8671272.033767169</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-8579156.183367169</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-8582788.488667168</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-8624584.165467167</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-8624576.165467167</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-8627395.463367168</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-8657621.968767168</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-8634301.267367169</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-8637435.387167169</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-8668581.406867169</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-8659328.04456717</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-8748922.56936717</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-8758092.22066717</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-8780457.02016717</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-8830207.18676717</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-8921812.152567171</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-9197184.657967171</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29986,11 +29986,17 @@
         <v>-9294006.44586717</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>62.11</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30029,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30066,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30103,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30140,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30177,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30214,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30217,11 +30247,17 @@
         <v>-9278348.665397275</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>63.74</v>
+      </c>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30290,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30327,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30364,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30401,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30438,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30475,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +30508,17 @@
         <v>-9285802.766997274</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>61.91</v>
+      </c>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30481,11 +30547,17 @@
         <v>-9283426.712497273</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>62.3</v>
+      </c>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30522,7 +30594,7 @@
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L913" t="n">
@@ -30631,9 +30703,11 @@
         <v>-9231864.366359459</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>62.9</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -30707,9 +30781,11 @@
         <v>-9179557.769759459</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>63.3</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -30783,9 +30859,11 @@
         <v>-9168132.68850713</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>66.73</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -30820,9 +30898,11 @@
         <v>-9167546.02210713</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>64.09999999999999</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -30857,9 +30937,11 @@
         <v>-9169793.535807129</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -30894,9 +30976,11 @@
         <v>-9183191.323007129</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>65.81999999999999</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -30931,9 +31015,11 @@
         <v>-9203118.855807129</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>65.68000000000001</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -30968,9 +31054,11 @@
         <v>-9354192.90580713</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>65.3</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31042,9 +31130,11 @@
         <v>-9440232.940507129</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>64.01000000000001</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31079,9 +31169,11 @@
         <v>-9463925.465807129</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>63.89</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31116,9 +31208,11 @@
         <v>-9464297.217807129</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>63.15</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31348,9 +31442,11 @@
         <v>-9481839.475707131</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>64.34999999999999</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31385,9 +31481,11 @@
         <v>-9481823.355707131</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>63.3</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31422,9 +31520,11 @@
         <v>-9475652.881207131</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>63.4</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
